--- a/Flower pollination algorithm/FA/Data/testdata.xlsx
+++ b/Flower pollination algorithm/FA/Data/testdata.xlsx
@@ -1,46 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovir/Github/FPA/Flower pollination algorithm/FA/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E8A953-8904-8140-AE68-7A3E18AF3919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="1000" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5120" yWindow="1000" windowWidth="28300" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="fun1" sheetId="1" r:id="rId1"/>
+    <sheet name="fun1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="fun2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="fun3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="fun4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="fun5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="fun6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="fun7" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,35 +57,94 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -404,8 +464,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -413,49 +477,968 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col width="9.83203125" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>1.666507263131533</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>4.778945922851562</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1.944754512208428</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4.911074876785278</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>1.618028635518731</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4.823970794677734</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>1.413841865231319</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4.868588924407959</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>1.78081105146563</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4.817209005355835</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>1.602037562675133</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4.815243005752563</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>1.896035595741086</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>4.804105997085571</v>
+      </c>
+      <c r="C7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>2.239166034562878</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>4.870281934738159</v>
+      </c>
+      <c r="C8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>1.909819555922153</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>4.813892126083374</v>
+      </c>
+      <c r="C9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>2.131011974472065</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>4.802733182907104</v>
+      </c>
+      <c r="C10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>1.513410614290954</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4.805528879165649</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>1.504412628036545</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4.789875984191895</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>1.530971649695312</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>4.793356657028198</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>1.904880803121568</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>4.791913032531738</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>1.742265839448033</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>4.799589157104492</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>3.297418822443241</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>5.148192167282104</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>3.087442697235355</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>5.174776077270508</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>3.289650870310604</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>5.11758017539978</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>2.3359328000033</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>5.141184091567993</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>3.26001894420674</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5.111741781234741</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>2.941304407214868</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5.121143102645874</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>3.362944804271545</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>5.111593961715698</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>2.397411330684102</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>5.119765281677246</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>2.299885115254257</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>5.133750915527344</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>2.86514172285994</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>5.128594875335693</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>2.618745768495185</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>5.11783504486084</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>3.170965304817651</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>5.471232891082764</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>2.771741918674341</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5.256697177886963</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>2.809583046899019</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>5.212383031845093</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>3.438767150975759</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>5.188081026077271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>150.5171397644928</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>15.68440914154053</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>305.8773286051047</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>15.72608685493469</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>392.4768312361884</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>15.78654623031616</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>135.8637189235875</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>15.7936909198761</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>426.7284224992222</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>15.70914912223816</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>244.131007926151</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>16.00481200218201</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>300.7063543272</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>15.75457668304443</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>273.3867385727343</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>15.78842973709106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>407.2835531039401</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>15.73651218414307</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>449.7812057786322</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>15.77006411552429</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>181.8967896161237</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>15.76482725143433</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>162.1554674507784</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>15.7739520072937</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>361.7709984936349</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>15.75475287437439</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>679.379463815436</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>16.41678977012634</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>250.2649881287068</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>15.74819421768188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>17.88565377041884</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>4.872354030609131</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>12.17388287248349</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4.849610328674316</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2.089453068257251</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4.872310161590576</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>12.48916623658032</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4.982829093933105</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>7.079615246015154</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4.814469814300537</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>2.444372676552845</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4.83087420463562</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>19.19006978487825</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4.864604949951172</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>14.72567187892215</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>5.001294136047363</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>3.967651198143813</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4.917473077774048</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>3.977622469983572</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4.836551189422607</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>10.7573327304516</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4.813882112503052</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>7.563253430304356</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4.830832958221436</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>5.072000928378165</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>4.819324016571045</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>9.971325275416778</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>4.820801973342896</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>13.58796079226623</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>4.820113897323608</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>123.1991336254881</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>5.944829940795898</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>347.5550248345725</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>6.046422004699707</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>166.6438358513562</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>5.923336982727051</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>115.0114093884033</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>5.855655908584595</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>249.8649216178049</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5.829349994659424</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>174.1672588970183</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5.781333923339844</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>963.2615053270539</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>5.81846284866333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>140.9572295982548</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>6.129206895828247</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>138.1963895553343</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>6.056100130081177</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>152.9600527575565</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>6.011016130447388</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>168.9787197043027</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>5.896629095077515</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>293.1567877256385</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>5.722772836685181</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>213.2838488576753</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5.679696083068848</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>150.3212389119426</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>5.718250036239624</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>590.6210947140457</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>6.1877281665802</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>1.983430032872194</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>5.030033826828003</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1.878692706199227</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4.979869842529297</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>1.890586070884188</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4.971424102783203</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>2.585171666365608</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4.95498514175415</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>1.932261532923525</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4.954817056655884</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>2.034260014966336</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4.963932991027832</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>1.900755451279842</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4.935555219650269</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>1.753890112206324</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4.967849016189575</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>1.578453538739252</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4.960375070571899</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>2.865517516196311</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4.885288000106812</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>1.805034154825474</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4.849354028701782</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>1.759358223311897</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4.902382135391235</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>1.571965733682653</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>4.895896196365356</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>1.653269044341231</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>4.880546808242798</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>1.406491811897686</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>4.862900972366333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>0.3668103265895749</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>5.081980228424072</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>0.3389676679767615</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>5.143438100814819</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>0.3015210118051895</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>5.183758020401001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>0.3626270455762357</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>5.147780895233154</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>0.3519651037070267</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5.110331058502197</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>0.2385906201007867</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5.079945802688599</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>0.2715538584896447</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>5.03116512298584</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0.4092698754538728</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>5.026465892791748</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>0.5917468122870625</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>5.047810077667236</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>0.3064713245681669</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>5.013446092605591</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>0.4278301882271211</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4.996824741363525</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>0.4247136423065556</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>5.000500917434692</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>0.2543197254706087</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5.002012968063354</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>0.2235360053222804</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>5.016574859619141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.1890059588639245</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5.049395084381104</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Flower pollination algorithm/FA/Data/testdata.xlsx
+++ b/Flower pollination algorithm/FA/Data/testdata.xlsx
@@ -13,6 +13,7 @@
     <sheet name="fun5" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="fun6" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="fun7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="fun8" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1431,11 +1432,38 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="0" t="n">
         <v>0.1890059588639245</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="0" t="n">
         <v>5.049395084381104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>-1355.016137109768</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>5.038606882095337</v>
       </c>
     </row>
   </sheetData>

--- a/Flower pollination algorithm/FA/Data/testdata.xlsx
+++ b/Flower pollination algorithm/FA/Data/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovir/Github/FPA/Flower pollination algorithm/FA/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B65BA87-18C5-6B42-8517-7F2401C590DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6F849F-DDD5-2445-B041-434E8AF09D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="1120" windowWidth="28300" windowHeight="17440" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10100" yWindow="1120" windowWidth="28300" windowHeight="17440" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fun1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="fun11" sheetId="11" r:id="rId11"/>
     <sheet name="fun12" sheetId="12" r:id="rId12"/>
     <sheet name="fun13" sheetId="13" r:id="rId13"/>
+    <sheet name="fun14" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1131,7 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -1291,6 +1292,46 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A13:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>10.763180666779171</v>
+      </c>
+      <c r="B13">
+        <v>185.17080998420721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>0.99800383779461566</v>
+      </c>
+      <c r="B14">
+        <v>184.42707109451291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>7.8739929771322084</v>
+      </c>
+      <c r="B15">
+        <v>588.25742220878601</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
